--- a/project/CV/CV_73.xlsx
+++ b/project/CV/CV_73.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,664 +498,4096 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>carson city</t>
+          <t>allen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>464134</v>
+        <v>66545</v>
       </c>
       <c r="D2" t="n">
-        <v>6621</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F2" t="n">
-        <v>32510</v>
+        <v>20001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.023</v>
+        <v>0.153</v>
       </c>
       <c r="H2" t="n">
-        <v>0.064</v>
+        <v>0.212</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="J2" t="n">
-        <v>0.274</v>
+        <v>0.167</v>
       </c>
       <c r="K2" t="n">
-        <v>0.585</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>churchill</t>
+          <t>anderson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>138845</v>
+        <v>61884</v>
       </c>
       <c r="D3" t="n">
-        <v>3368</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F3" t="n">
-        <v>32001</v>
+        <v>20003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.022</v>
+        <v>0.189</v>
       </c>
       <c r="H3" t="n">
-        <v>0.093</v>
+        <v>0.063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.058</v>
+        <v>0.137</v>
       </c>
       <c r="J3" t="n">
-        <v>0.153</v>
+        <v>0.267</v>
       </c>
       <c r="K3" t="n">
-        <v>0.674</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>clark</t>
+          <t>atchison</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23357027</v>
+        <v>142980</v>
       </c>
       <c r="D4" t="n">
-        <v>393854</v>
+        <v>1178</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F4" t="n">
-        <v>32003</v>
+        <v>20005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.027</v>
+        <v>0.137</v>
       </c>
       <c r="H4" t="n">
-        <v>0.032</v>
+        <v>0.122</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.169</v>
       </c>
       <c r="J4" t="n">
-        <v>0.145</v>
+        <v>0.256</v>
       </c>
       <c r="K4" t="n">
-        <v>0.742</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>douglas</t>
+          <t>barber</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>196864</v>
+        <v>27930</v>
       </c>
       <c r="D5" t="n">
-        <v>1586</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F5" t="n">
-        <v>32005</v>
+        <v>20007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.029</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.055</v>
+        <v>0.147</v>
       </c>
       <c r="I5" t="n">
-        <v>0.091</v>
+        <v>0.118</v>
       </c>
       <c r="J5" t="n">
-        <v>0.238</v>
+        <v>0.329</v>
       </c>
       <c r="K5" t="n">
-        <v>0.588</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>elko</t>
+          <t>barton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>444466</v>
+        <v>245279</v>
       </c>
       <c r="D6" t="n">
-        <v>3911</v>
+        <v>2417</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F6" t="n">
-        <v>32007</v>
+        <v>20009</v>
       </c>
       <c r="G6" t="n">
-        <v>0.021</v>
+        <v>0.107</v>
       </c>
       <c r="H6" t="n">
-        <v>0.046</v>
+        <v>0.131</v>
       </c>
       <c r="I6" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="J6" t="n">
-        <v>0.364</v>
+        <v>0.211</v>
       </c>
       <c r="K6" t="n">
-        <v>0.379</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>esmeralda</t>
+          <t>bourbon</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2372</v>
+        <v>102448</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F7" t="n">
-        <v>32009</v>
+        <v>20011</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.167</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004</v>
+        <v>0.146</v>
       </c>
       <c r="I7" t="n">
-        <v>0.006</v>
+        <v>0.077</v>
       </c>
       <c r="J7" t="n">
-        <v>0.032</v>
+        <v>0.12</v>
       </c>
       <c r="K7" t="n">
-        <v>0.872</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>eureka</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4033</v>
+        <v>103666</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2175</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F8" t="n">
-        <v>32011</v>
+        <v>20013</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002</v>
+        <v>0.08900000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05400000000000001</v>
+        <v>0.149</v>
       </c>
       <c r="I8" t="n">
-        <v>0.17</v>
+        <v>0.183</v>
       </c>
       <c r="J8" t="n">
-        <v>0.386</v>
+        <v>0.197</v>
       </c>
       <c r="K8" t="n">
-        <v>0.387</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>humboldt</t>
+          <t>butler</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>86721</v>
+        <v>565195</v>
       </c>
       <c r="D9" t="n">
-        <v>1623</v>
+        <v>2739</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F9" t="n">
-        <v>32013</v>
+        <v>20015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008</v>
+        <v>0.053</v>
       </c>
       <c r="H9" t="n">
-        <v>0.042</v>
+        <v>0.133</v>
       </c>
       <c r="I9" t="n">
-        <v>0.156</v>
+        <v>0.122</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="K9" t="n">
-        <v>0.725</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lander</t>
+          <t>chase</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>41804</v>
+        <v>29040</v>
       </c>
       <c r="D10" t="n">
-        <v>753</v>
+        <v>386</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F10" t="n">
-        <v>32015</v>
+        <v>20017</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004</v>
+        <v>0.151</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08199999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>0.142</v>
+        <v>0.212</v>
       </c>
       <c r="J10" t="n">
-        <v>0.182</v>
+        <v>0.225</v>
       </c>
       <c r="K10" t="n">
-        <v>0.588</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lincoln</t>
+          <t>chautauqua</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26422</v>
+        <v>16824</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="E11" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F11" t="n">
-        <v>32017</v>
+        <v>20019</v>
       </c>
       <c r="G11" t="n">
-        <v>0.048</v>
+        <v>0.128</v>
       </c>
       <c r="H11" t="n">
-        <v>0.019</v>
+        <v>0.137</v>
       </c>
       <c r="I11" t="n">
-        <v>0.147</v>
+        <v>0.185</v>
       </c>
       <c r="J11" t="n">
-        <v>0.177</v>
+        <v>0.214</v>
       </c>
       <c r="K11" t="n">
-        <v>0.61</v>
+        <v>0.337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lyon</t>
+          <t>cherokee</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>233130</v>
+        <v>201093</v>
       </c>
       <c r="D12" t="n">
-        <v>4336</v>
+        <v>1823</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F12" t="n">
-        <v>32019</v>
+        <v>20021</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03700000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="H12" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.121</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05</v>
+        <v>0.164</v>
       </c>
       <c r="J12" t="n">
-        <v>0.173</v>
+        <v>0.174</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6709999999999999</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mineral</t>
+          <t>cheyenne</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18484</v>
+        <v>31059</v>
       </c>
       <c r="D13" t="n">
-        <v>335</v>
+        <v>1065</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F13" t="n">
-        <v>32021</v>
+        <v>20023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.022</v>
+        <v>0.065</v>
       </c>
       <c r="H13" t="n">
-        <v>0.018</v>
+        <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09</v>
+        <v>0.174</v>
       </c>
       <c r="J13" t="n">
-        <v>0.115</v>
+        <v>0.235</v>
       </c>
       <c r="K13" t="n">
-        <v>0.755</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nye</t>
+          <t>clark</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>246100</v>
+        <v>25159</v>
       </c>
       <c r="D14" t="n">
-        <v>6028</v>
+        <v>544</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F14" t="n">
-        <v>32023</v>
+        <v>20025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.061</v>
+        <v>0.163</v>
       </c>
       <c r="H14" t="n">
-        <v>0.038</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>0.052</v>
+        <v>0.126</v>
       </c>
       <c r="J14" t="n">
-        <v>0.183</v>
+        <v>0.232</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6659999999999999</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pershing</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>50712</v>
+        <v>62034</v>
       </c>
       <c r="D15" t="n">
-        <v>740</v>
+        <v>1868</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F15" t="n">
-        <v>32027</v>
+        <v>20027</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01</v>
+        <v>0.081</v>
       </c>
       <c r="H15" t="n">
-        <v>0.013</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.248</v>
+        <v>0.115</v>
       </c>
       <c r="J15" t="n">
-        <v>0.038</v>
+        <v>0.229</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>storey</t>
+          <t>cloud</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7080</v>
+        <v>83305</v>
       </c>
       <c r="D16" t="n">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F16" t="n">
-        <v>32029</v>
+        <v>20029</v>
       </c>
       <c r="G16" t="n">
-        <v>0.015</v>
+        <v>0.154</v>
       </c>
       <c r="H16" t="n">
-        <v>0.038</v>
+        <v>0.077</v>
       </c>
       <c r="I16" t="n">
-        <v>0.039</v>
+        <v>0.118</v>
       </c>
       <c r="J16" t="n">
-        <v>0.126</v>
+        <v>0.217</v>
       </c>
       <c r="K16" t="n">
-        <v>0.782</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>washoe</t>
+          <t>coffey</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4293017</v>
+        <v>61874</v>
       </c>
       <c r="D17" t="n">
-        <v>64297</v>
+        <v>2713</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F17" t="n">
-        <v>32031</v>
+        <v>20031</v>
       </c>
       <c r="G17" t="n">
-        <v>0.024</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0.025</v>
+        <v>0.119</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06</v>
+        <v>0.165</v>
       </c>
       <c r="J17" t="n">
-        <v>0.215</v>
+        <v>0.404</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6759999999999999</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>white pine</t>
+          <t>comanche</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nevada</t>
+          <t>kansas</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>41073</v>
+        <v>12754</v>
       </c>
       <c r="D18" t="n">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>44239</v>
       </c>
       <c r="F18" t="n">
-        <v>32033</v>
+        <v>20033</v>
       </c>
       <c r="G18" t="n">
-        <v>0.059</v>
+        <v>0.112</v>
       </c>
       <c r="H18" t="n">
-        <v>0.016</v>
+        <v>0.144</v>
       </c>
       <c r="I18" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cowley</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>270549</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1449</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F19" t="n">
+        <v>20035</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>crawford</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>415239</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3572</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F20" t="n">
+        <v>20037</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4920000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>decatur</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>25314</v>
+      </c>
+      <c r="D21" t="n">
+        <v>138</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20039</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>dickinson</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>126685</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1956</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F22" t="n">
+        <v>20041</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>doniphan</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>77245</v>
+      </c>
+      <c r="D23" t="n">
+        <v>478</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F23" t="n">
+        <v>20043</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>douglas</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>809948</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4537</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F24" t="n">
+        <v>20045</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.009000000000000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.7340000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>edwards</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>25722</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F25" t="n">
+        <v>20047</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.506</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>elk</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10385</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F26" t="n">
+        <v>20049</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ellis</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>364040</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4323</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20051</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ellsworth</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>100217</v>
+      </c>
+      <c r="D28" t="n">
+        <v>393</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F28" t="n">
+        <v>20053</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>finney</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>859986</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6484</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F29" t="n">
+        <v>20055</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ford</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>918973</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2618</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20057</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.399</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>franklin</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>199519</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1930</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20059</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>geary</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>211915</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1567</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F32" t="n">
+        <v>20061</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>gove</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>38360</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2303</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F33" t="n">
+        <v>20063</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.08900000000000001</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>graham</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>22468</v>
+      </c>
+      <c r="D34" t="n">
+        <v>270</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F34" t="n">
+        <v>20065</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>111311</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1849</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20067</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>gray</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>62215</v>
+      </c>
+      <c r="D36" t="n">
+        <v>668</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20069</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>greeley</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10277</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20071</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>greenwood</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>44499</v>
+      </c>
+      <c r="D38" t="n">
+        <v>160</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F38" t="n">
+        <v>20073</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>hamilton</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>23710</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F39" t="n">
+        <v>20075</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.368</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>harper</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>51226</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1415</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F40" t="n">
+        <v>20077</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>harvey</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>278964</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3234</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F41" t="n">
+        <v>20079</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>haskell</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>44401</v>
+      </c>
+      <c r="D42" t="n">
+        <v>150</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F42" t="n">
+        <v>20081</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>hodgeman</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>17685</v>
+      </c>
+      <c r="D43" t="n">
+        <v>314</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F43" t="n">
+        <v>20083</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>jackson</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>124028</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1115</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F44" t="n">
+        <v>20085</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.5770000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>jefferson</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>124831</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1627</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F45" t="n">
+        <v>20087</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.634</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>jewell</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>16951</v>
+      </c>
+      <c r="D46" t="n">
+        <v>292</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F46" t="n">
+        <v>20089</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>johnson</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4776545</v>
+      </c>
+      <c r="D47" t="n">
+        <v>62349</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F47" t="n">
+        <v>20091</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.654</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>kearny</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>57244</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1087</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20093</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>kingman</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>56799</v>
+      </c>
+      <c r="D49" t="n">
+        <v>785</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F49" t="n">
+        <v>20095</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.464</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>kiowa</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>20276</v>
+      </c>
+      <c r="D50" t="n">
+        <v>152</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F50" t="n">
+        <v>20097</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>labette</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>187595</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1757</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20099</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>lane</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D52" t="n">
+        <v>393</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F52" t="n">
+        <v>20101</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>leavenworth</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>774815</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5479</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F53" t="n">
+        <v>20103</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.544</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>lincoln</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>17622</v>
+      </c>
+      <c r="D54" t="n">
+        <v>218</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20105</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>linn</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>56472</v>
+      </c>
+      <c r="D55" t="n">
+        <v>392</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F55" t="n">
+        <v>20107</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>logan</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>28257</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F56" t="n">
+        <v>20109</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>lyon</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>448199</v>
+      </c>
+      <c r="D57" t="n">
+        <v>8720</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F57" t="n">
+        <v>20111</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>marion</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>75770</v>
+      </c>
+      <c r="D58" t="n">
+        <v>587</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F58" t="n">
+        <v>20115</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>marshall</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>78118</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1546</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F59" t="n">
+        <v>20117</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mcpherson</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>240269</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3112</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F60" t="n">
+        <v>20113</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>meade</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>50106</v>
+      </c>
+      <c r="D61" t="n">
+        <v>458</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20119</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>miami</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>199190</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1236</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F62" t="n">
+        <v>20121</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mitchell</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>39619</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F63" t="n">
+        <v>20123</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>montgomery</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>237943</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1413</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F64" t="n">
+        <v>20125</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>morris</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>38601</v>
+      </c>
+      <c r="D65" t="n">
+        <v>593</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F65" t="n">
+        <v>20127</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>morton</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>21193</v>
+      </c>
+      <c r="D66" t="n">
+        <v>953</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F66" t="n">
+        <v>20129</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>nemaha</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>133663</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3612</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F67" t="n">
+        <v>20131</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.4320000000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>neosho</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>124134</v>
+      </c>
+      <c r="D68" t="n">
+        <v>906</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20133</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ness</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>36765</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F69" t="n">
+        <v>20135</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>norton</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>127161</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2658</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20137</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>osage</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>85285</v>
+      </c>
+      <c r="D71" t="n">
+        <v>770</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F71" t="n">
+        <v>20139</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>osborne</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>17877</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F72" t="n">
+        <v>20141</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ottawa</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>43662</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F73" t="n">
+        <v>20143</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>pawnee</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>113461</v>
+      </c>
+      <c r="D74" t="n">
+        <v>447</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F74" t="n">
+        <v>20145</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.4970000000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>phillips</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>63810</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2226</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20147</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>pottawatomie</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>129505</v>
+      </c>
+      <c r="D76" t="n">
+        <v>499</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F76" t="n">
+        <v>20149</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>pratt</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>69867</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1479</v>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20151</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.387</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>rawlins</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>33174</v>
+      </c>
+      <c r="D78" t="n">
+        <v>456</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F78" t="n">
+        <v>20153</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>reno</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>738634</v>
+      </c>
+      <c r="D79" t="n">
+        <v>8739</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F79" t="n">
+        <v>20155</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>republic</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>53725</v>
+      </c>
+      <c r="D80" t="n">
+        <v>902</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F80" t="n">
+        <v>20157</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>rice</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>76359</v>
+      </c>
+      <c r="D81" t="n">
+        <v>169</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F81" t="n">
+        <v>20159</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>riley</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>604734</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2960</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F82" t="n">
+        <v>20161</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>rooks</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>53116</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1068</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F83" t="n">
+        <v>20163</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>rush</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>36040</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F84" t="n">
+        <v>20165</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>russell</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>73083</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1790</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F85" t="n">
+        <v>20167</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.335</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>saline</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>459749</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6619</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F86" t="n">
+        <v>20169</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>scott</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>63074</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F87" t="n">
+        <v>20171</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>sedgwick</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4588585</v>
+      </c>
+      <c r="D88" t="n">
+        <v>35641</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20173</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>seward</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>571608</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2813</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F89" t="n">
+        <v>20175</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>shawnee</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1378309</v>
+      </c>
+      <c r="D90" t="n">
+        <v>24405</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F90" t="n">
+        <v>20177</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.009000000000000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.633</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>sheridan</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>40773</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F91" t="n">
+        <v>20179</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>sherman</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>57233</v>
+      </c>
+      <c r="D92" t="n">
+        <v>762</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20181</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>smith</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>20286</v>
+      </c>
+      <c r="D93" t="n">
+        <v>118</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F93" t="n">
+        <v>20183</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.08800000000000001</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>stafford</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>30198</v>
+      </c>
+      <c r="D94" t="n">
+        <v>665</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F94" t="n">
+        <v>20185</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>stanton</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>22117</v>
+      </c>
+      <c r="D95" t="n">
+        <v>360</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F95" t="n">
+        <v>20187</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.2160000000000001</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>stevens</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>63247</v>
+      </c>
+      <c r="D96" t="n">
+        <v>511</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F96" t="n">
+        <v>20189</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>sumner</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>144996</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20191</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>thomas</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>99231</v>
+      </c>
+      <c r="D98" t="n">
+        <v>726</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20193</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="I98" t="n">
         <v>0.208</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.296</v>
+      <c r="J98" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>trego</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>32689</v>
+      </c>
+      <c r="D99" t="n">
+        <v>495</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20195</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.291</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>wabaunsee</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>50756</v>
+      </c>
+      <c r="D100" t="n">
+        <v>653</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20197</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.591</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>wallace</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>16837</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20199</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>washington</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>39463</v>
+      </c>
+      <c r="D102" t="n">
+        <v>650</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F102" t="n">
+        <v>20201</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.4320000000000001</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>wichita</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>18046</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F103" t="n">
+        <v>20203</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>wilson</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>61591</v>
+      </c>
+      <c r="D104" t="n">
+        <v>779</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F104" t="n">
+        <v>20205</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>woodson</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>14034</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F105" t="n">
+        <v>20207</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>wyandotte</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>kansas</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>2293994</v>
+      </c>
+      <c r="D106" t="n">
+        <v>40023</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44239</v>
+      </c>
+      <c r="F106" t="n">
+        <v>20209</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.665</v>
       </c>
     </row>
   </sheetData>
